--- a/BackTest/2019-11-24 BackTest WET.xlsx
+++ b/BackTest/2019-11-24 BackTest WET.xlsx
@@ -7871,17 +7871,13 @@
         <v>5.55500000000001</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K214" t="n">
-        <v>5.55</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
@@ -7910,22 +7906,14 @@
         <v>5.550000000000011</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="K215" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -7953,22 +7941,14 @@
         <v>5.55500000000001</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="K216" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -7996,22 +7976,14 @@
         <v>5.58500000000001</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="K217" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8039,22 +8011,14 @@
         <v>5.63500000000001</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K218" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8082,22 +8046,14 @@
         <v>5.705000000000011</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K219" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8131,14 +8087,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8172,14 +8122,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8213,14 +8157,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8254,14 +8192,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8295,14 +8227,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8336,14 +8262,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8377,14 +8297,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8415,17 +8329,11 @@
         <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8456,17 +8364,11 @@
         <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8500,16 +8402,10 @@
         <v>1</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
-        <v>1.08509009009009</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -8573,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
@@ -10775,14 +10671,20 @@
         <v>5.515000000000011</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>5.51</v>
+      </c>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10816,12 +10718,14 @@
         <v>0</v>
       </c>
       <c r="J295" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="K295" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="L295" t="inlineStr"/>
+        <v>5.52</v>
+      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -10857,12 +10761,10 @@
       <c r="J296" t="n">
         <v>5.51</v>
       </c>
-      <c r="K296" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M296" t="n">
@@ -10900,9 +10802,7 @@
       <c r="J297" t="n">
         <v>5.48</v>
       </c>
-      <c r="K297" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10941,11 +10841,9 @@
         <v>0</v>
       </c>
       <c r="J298" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="K298" t="n">
-        <v>5.51</v>
-      </c>
+        <v>5.48</v>
+      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10984,11 +10882,9 @@
         <v>0</v>
       </c>
       <c r="J299" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="K299" t="n">
-        <v>5.51</v>
-      </c>
+        <v>5.53</v>
+      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11027,11 +10923,9 @@
         <v>0</v>
       </c>
       <c r="J300" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="K300" t="n">
-        <v>5.51</v>
-      </c>
+        <v>5.41</v>
+      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11070,11 +10964,9 @@
         <v>0</v>
       </c>
       <c r="J301" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="K301" t="n">
-        <v>5.51</v>
-      </c>
+        <v>5.42</v>
+      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11113,11 +11005,9 @@
         <v>0</v>
       </c>
       <c r="J302" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="K302" t="n">
-        <v>5.51</v>
-      </c>
+        <v>5.53</v>
+      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11150,17 +11040,13 @@
         <v>5.515000000000011</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="K303" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11193,17 +11079,13 @@
         <v>5.51500000000001</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="K304" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11236,17 +11118,13 @@
         <v>5.480000000000011</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="K305" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11279,17 +11157,13 @@
         <v>5.490000000000012</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="K306" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11322,17 +11196,13 @@
         <v>5.580000000000013</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="K307" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11365,17 +11235,13 @@
         <v>5.580000000000013</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="K308" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11408,17 +11274,13 @@
         <v>5.550000000000013</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="K309" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11451,17 +11313,13 @@
         <v>5.515000000000013</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="K310" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11494,17 +11352,13 @@
         <v>5.480000000000013</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K311" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11537,17 +11391,13 @@
         <v>5.515000000000013</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="K312" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11580,17 +11430,13 @@
         <v>5.540000000000013</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K313" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11623,17 +11469,13 @@
         <v>5.560000000000013</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="K314" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11666,17 +11508,13 @@
         <v>5.580000000000013</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="K315" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11709,17 +11547,13 @@
         <v>5.585000000000012</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K316" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11752,17 +11586,13 @@
         <v>5.595000000000011</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K317" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11795,17 +11625,13 @@
         <v>5.570000000000012</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K318" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11838,17 +11664,13 @@
         <v>5.555000000000012</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="K319" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11881,17 +11703,13 @@
         <v>5.600000000000012</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="K320" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11924,17 +11742,13 @@
         <v>5.650000000000012</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K321" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11967,17 +11781,13 @@
         <v>5.665000000000012</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="K322" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12010,17 +11820,13 @@
         <v>5.640000000000011</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="K323" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12053,17 +11859,13 @@
         <v>5.630000000000011</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="K324" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12096,17 +11898,13 @@
         <v>5.605000000000011</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="K325" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12139,17 +11937,13 @@
         <v>5.580000000000011</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K326" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12182,17 +11976,13 @@
         <v>5.60500000000001</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="K327" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12225,17 +12015,13 @@
         <v>5.62500000000001</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="K328" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12268,17 +12054,13 @@
         <v>5.61000000000001</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="K329" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12311,17 +12093,13 @@
         <v>5.59500000000001</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="K330" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12354,17 +12132,13 @@
         <v>5.59500000000001</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K331" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12397,17 +12171,13 @@
         <v>5.590000000000011</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K332" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12440,17 +12210,13 @@
         <v>5.59500000000001</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="K333" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12483,17 +12249,13 @@
         <v>5.600000000000011</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="K334" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12526,17 +12288,13 @@
         <v>5.570000000000011</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="J335" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K335" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12569,17 +12327,13 @@
         <v>5.520000000000012</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="K336" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12612,17 +12366,13 @@
         <v>5.495000000000012</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K337" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12655,17 +12405,13 @@
         <v>5.470000000000012</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="K338" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12698,17 +12444,13 @@
         <v>5.450000000000012</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
       </c>
-      <c r="J339" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="K339" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12741,17 +12483,13 @@
         <v>5.47500000000001</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
       </c>
-      <c r="J340" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="K340" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12784,17 +12522,13 @@
         <v>5.525000000000009</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="K341" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12827,17 +12561,13 @@
         <v>5.560000000000008</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="K342" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12870,17 +12600,13 @@
         <v>5.56500000000001</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="K343" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12913,17 +12639,13 @@
         <v>5.575000000000012</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="K344" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12956,17 +12678,13 @@
         <v>5.580000000000013</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K345" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12999,17 +12717,13 @@
         <v>5.585000000000012</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="K346" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13042,17 +12756,13 @@
         <v>5.610000000000013</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="K347" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13085,17 +12795,13 @@
         <v>5.610000000000012</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K348" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13128,17 +12834,13 @@
         <v>5.610000000000012</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="K349" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13171,17 +12873,13 @@
         <v>5.625000000000012</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="K350" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13214,17 +12912,13 @@
         <v>5.610000000000012</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="K351" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13257,17 +12951,13 @@
         <v>5.60000000000001</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K352" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13300,17 +12990,13 @@
         <v>5.610000000000011</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K353" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13343,17 +13029,13 @@
         <v>5.615000000000012</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="K354" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13392,9 +13074,7 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13433,9 +13113,7 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13468,17 +13146,13 @@
         <v>5.58500000000001</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="K357" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13511,17 +13185,13 @@
         <v>5.62000000000001</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="K358" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13554,17 +13224,13 @@
         <v>5.625000000000011</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="K359" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13597,17 +13263,13 @@
         <v>5.590000000000011</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="K360" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13646,9 +13308,7 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13687,9 +13347,7 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13728,9 +13386,7 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13769,9 +13425,7 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13810,9 +13464,7 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13851,9 +13503,7 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13892,9 +13542,7 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13927,17 +13575,13 @@
         <v>5.505000000000011</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
-      <c r="J368" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="K368" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13976,9 +13620,7 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14011,17 +13653,13 @@
         <v>5.580000000000014</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="K370" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14054,17 +13692,13 @@
         <v>5.580000000000015</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="K371" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14097,17 +13731,13 @@
         <v>5.500000000000015</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="K372" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14140,17 +13770,13 @@
         <v>5.490000000000015</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="K373" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14183,17 +13809,13 @@
         <v>5.495000000000016</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="K374" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14226,17 +13848,13 @@
         <v>5.495000000000016</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
-      <c r="J375" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K375" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14269,17 +13887,13 @@
         <v>5.515000000000017</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
       </c>
-      <c r="J376" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="K376" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14312,17 +13926,13 @@
         <v>5.590000000000017</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
       </c>
-      <c r="J377" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="K377" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14355,17 +13965,13 @@
         <v>5.660000000000018</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
       </c>
-      <c r="J378" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K378" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14398,17 +14004,13 @@
         <v>5.680000000000017</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
       </c>
-      <c r="J379" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K379" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14441,17 +14043,13 @@
         <v>5.600000000000017</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
       </c>
-      <c r="J380" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="K380" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14484,17 +14082,13 @@
         <v>5.525000000000018</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
       </c>
-      <c r="J381" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="K381" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14527,17 +14121,13 @@
         <v>5.610000000000019</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
       </c>
-      <c r="J382" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="K382" t="n">
-        <v>5.51</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-11-24 BackTest WET.xlsx
+++ b/BackTest/2019-11-24 BackTest WET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>53592814.45549999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>53582224.33139999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>5.56</v>
@@ -523,7 +523,7 @@
         <v>53798639.06799999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>5.37</v>
@@ -562,7 +562,7 @@
         <v>54066182.96359999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>5.5</v>
@@ -749,9 +749,11 @@
         <v>54738547.4553986</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.62</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -786,9 +788,11 @@
         <v>54739188.7277986</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.57</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -823,9 +827,11 @@
         <v>54909288.7277986</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.62</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -860,9 +866,11 @@
         <v>54711401.93679859</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -897,7 +905,7 @@
         <v>54711401.93679859</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>5.64</v>
@@ -936,7 +944,7 @@
         <v>54711302.93679859</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>5.64</v>
@@ -975,7 +983,7 @@
         <v>54715875.9350986</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>5.63</v>
@@ -1014,7 +1022,7 @@
         <v>54584695.9350986</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>5.64</v>
@@ -1053,7 +1061,7 @@
         <v>54588382.55867726</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>5.62</v>
@@ -1092,9 +1100,11 @@
         <v>54722106.87549859</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.72</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1129,9 +1139,11 @@
         <v>54840897.69729859</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.74</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1166,9 +1178,11 @@
         <v>55385868.45805377</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.77</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1203,9 +1217,11 @@
         <v>55988583.41861334</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.79</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1240,9 +1256,11 @@
         <v>56267910.79191335</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.84</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1277,9 +1295,11 @@
         <v>56158375.89941335</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5.85</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -2091,7 +2111,7 @@
         <v>60866876.73951911</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2239,18 +2259,16 @@
         <v>61019651.13306651</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -2276,15 +2294,11 @@
         <v>60842227.95546652</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2313,15 +2327,11 @@
         <v>59588595.23496652</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2350,15 +2360,11 @@
         <v>59588673.60496651</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2387,15 +2393,11 @@
         <v>59463897.25636651</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2424,15 +2426,11 @@
         <v>59463985.25636651</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2461,15 +2459,11 @@
         <v>58937752.38690411</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2498,15 +2492,11 @@
         <v>59753328.11840411</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2535,15 +2525,11 @@
         <v>59746963.0043041</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2572,15 +2558,11 @@
         <v>59801299.3613041</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2609,15 +2591,11 @@
         <v>59797814.1614041</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2646,15 +2624,11 @@
         <v>59640861.5952041</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2683,15 +2657,11 @@
         <v>59604860.7973041</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2720,15 +2690,11 @@
         <v>59661331.5395041</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2757,15 +2723,11 @@
         <v>58909487.1333041</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2794,15 +2756,11 @@
         <v>59653822.32100411</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2831,15 +2789,11 @@
         <v>59755549.78480411</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2868,15 +2822,11 @@
         <v>59619864.68940411</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2909,11 +2859,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2946,11 +2892,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2979,15 +2921,11 @@
         <v>59865830.81980411</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3020,11 +2958,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3057,11 +2991,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3094,11 +3024,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3131,11 +3057,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3168,11 +3090,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3205,11 +3123,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3242,11 +3156,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3275,15 +3185,11 @@
         <v>59855378.29860411</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3316,11 +3222,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3353,11 +3255,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3386,15 +3284,11 @@
         <v>59210656.0770041</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3423,15 +3317,11 @@
         <v>59210656.0770041</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3464,11 +3354,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3497,15 +3383,11 @@
         <v>59210656.0770041</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3534,15 +3416,11 @@
         <v>59210656.0770041</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3575,11 +3453,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3608,15 +3482,11 @@
         <v>60811277.51340411</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3645,15 +3515,11 @@
         <v>61076345.22760411</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3682,15 +3548,11 @@
         <v>61062680.6998041</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3719,15 +3581,11 @@
         <v>61062680.6998041</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3760,11 +3618,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3797,11 +3651,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3834,11 +3684,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3871,11 +3717,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3908,11 +3750,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3945,11 +3783,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +3816,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4019,11 +3849,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4056,11 +3882,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4093,11 +3915,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4130,11 +3948,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4167,11 +3981,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4204,11 +4014,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4241,11 +4047,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4278,11 +4080,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4315,11 +4113,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4348,15 +4142,11 @@
         <v>64810660.29890411</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4385,15 +4175,11 @@
         <v>64254467.10180411</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4422,15 +4208,11 @@
         <v>64254467.10180411</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4459,15 +4241,11 @@
         <v>64041227.79450411</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4496,15 +4274,11 @@
         <v>64451304.08680411</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4533,15 +4307,11 @@
         <v>64421304.08680411</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4570,15 +4340,11 @@
         <v>64306093.15900411</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4607,15 +4373,11 @@
         <v>64306192.15900411</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4644,15 +4406,11 @@
         <v>64288074.14900412</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4681,15 +4439,11 @@
         <v>64190370.22600412</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4718,15 +4472,11 @@
         <v>64133233.27950411</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4755,15 +4505,11 @@
         <v>63617338.05800411</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4792,15 +4538,11 @@
         <v>63815886.71000411</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4829,15 +4571,11 @@
         <v>63724243.06825403</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4866,15 +4604,11 @@
         <v>63757797.66031719</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4903,15 +4637,11 @@
         <v>63727127.83411719</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4940,15 +4670,11 @@
         <v>63729755.07251719</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4977,15 +4703,11 @@
         <v>63798965.27251719</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5014,15 +4736,11 @@
         <v>63798965.27251719</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5051,15 +4769,11 @@
         <v>63905562.40981719</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5088,15 +4802,11 @@
         <v>64255083.13921719</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5125,15 +4835,11 @@
         <v>64280892.34199943</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5162,15 +4868,11 @@
         <v>64293217.13808426</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +4905,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5240,11 +4938,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5277,11 +4971,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5314,11 +5004,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5351,11 +5037,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5388,11 +5070,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5425,11 +5103,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5462,11 +5136,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5499,11 +5169,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5536,11 +5202,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5573,11 +5235,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5610,11 +5268,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5647,11 +5301,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5684,11 +5334,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5721,11 +5367,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5758,11 +5400,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5791,15 +5429,11 @@
         <v>65073727.5939792</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5828,15 +5462,11 @@
         <v>65071827.5939792</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5865,15 +5495,11 @@
         <v>64871827.5939792</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5902,15 +5528,11 @@
         <v>64844274.9290792</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5939,15 +5561,11 @@
         <v>64729467.7591792</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5976,15 +5594,11 @@
         <v>64739467.7591792</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6013,15 +5627,11 @@
         <v>64285577.4280792</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6050,15 +5660,11 @@
         <v>63760705.97829418</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6087,15 +5693,11 @@
         <v>63934155.97512751</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6124,15 +5726,11 @@
         <v>63932155.97512751</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6161,15 +5759,11 @@
         <v>63276260.87072751</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6198,15 +5792,11 @@
         <v>63812841.94922751</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6235,15 +5825,11 @@
         <v>63750467.45582751</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6272,15 +5858,11 @@
         <v>63170544.24002751</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6309,15 +5891,11 @@
         <v>63463168.89162751</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6346,15 +5924,11 @@
         <v>62876548.57752752</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6383,15 +5957,11 @@
         <v>62921920.45022751</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6420,15 +5990,11 @@
         <v>62921920.45022751</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6457,15 +6023,11 @@
         <v>62921832.45022751</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6494,15 +6056,11 @@
         <v>62921931.45022751</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6531,15 +6089,11 @@
         <v>62921931.45022751</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6568,15 +6122,11 @@
         <v>62921931.45022751</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6609,11 +6159,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6646,11 +6192,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6683,11 +6225,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6720,11 +6258,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6757,11 +6291,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6794,11 +6324,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6831,11 +6357,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6868,11 +6390,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6905,11 +6423,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6942,11 +6456,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6979,11 +6489,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7016,11 +6522,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7053,11 +6555,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7090,11 +6588,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7127,11 +6621,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7164,11 +6654,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7201,11 +6687,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7238,11 +6720,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7275,11 +6753,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7312,11 +6786,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7349,11 +6819,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7386,11 +6852,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7423,11 +6885,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7460,11 +6918,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7497,11 +6951,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7534,11 +6984,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7571,11 +7017,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7608,11 +7050,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7645,11 +7083,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7682,11 +7116,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7719,11 +7149,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7756,11 +7182,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7793,11 +7215,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7830,11 +7248,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7867,11 +7281,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7904,11 +7314,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7941,11 +7347,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7978,11 +7380,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8015,11 +7413,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8052,11 +7446,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8089,11 +7479,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8126,11 +7512,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8163,11 +7545,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8200,11 +7578,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8237,11 +7611,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8274,11 +7644,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8311,11 +7677,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8348,11 +7710,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8385,11 +7743,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8422,11 +7776,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8459,11 +7809,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8496,11 +7842,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8533,11 +7875,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8570,11 +7908,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8607,11 +7941,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8644,11 +7974,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8681,11 +8007,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8718,11 +8040,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8755,11 +8073,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8792,11 +8106,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8829,11 +8139,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8866,11 +8172,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8903,11 +8205,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8940,11 +8238,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8977,11 +8271,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9014,11 +8304,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9051,11 +8337,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9088,11 +8370,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9125,11 +8403,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9162,11 +8436,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9199,11 +8469,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9236,11 +8502,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9273,11 +8535,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9310,11 +8568,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9347,11 +8601,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9384,11 +8634,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9421,11 +8667,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9458,11 +8700,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9495,11 +8733,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9532,11 +8766,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9569,11 +8799,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9606,11 +8832,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9643,11 +8865,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9680,11 +8898,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9717,11 +8931,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9754,11 +8964,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9791,11 +8997,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9828,11 +9030,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9865,11 +9063,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9902,11 +9096,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9939,11 +9129,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9976,11 +9162,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10013,11 +9195,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10050,11 +9228,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10087,11 +9261,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10124,11 +9294,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10161,11 +9327,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10198,11 +9360,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10235,11 +9393,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10272,11 +9426,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10309,11 +9459,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10346,11 +9492,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10383,11 +9525,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10420,11 +9558,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10457,11 +9591,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10494,11 +9624,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10531,11 +9657,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10568,11 +9690,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10605,11 +9723,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10642,11 +9756,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10679,11 +9789,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10716,11 +9822,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10753,11 +9855,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10790,11 +9888,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10827,11 +9921,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10864,11 +9954,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10901,11 +9987,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10938,11 +10020,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10975,11 +10053,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11008,16 +10082,14 @@
         <v>62158596.56829146</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
       <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
@@ -11043,7 +10115,7 @@
         <v>62158596.56829146</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11076,7 +10148,7 @@
         <v>62158413.73889146</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11109,7 +10181,7 @@
         <v>62159030.73889146</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11142,7 +10214,7 @@
         <v>62163147.73889146</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11175,7 +10247,7 @@
         <v>62163147.73889146</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11208,7 +10280,7 @@
         <v>62169163.10209146</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11241,7 +10313,7 @@
         <v>62116964.03359146</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11274,7 +10346,7 @@
         <v>61980093.67829146</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11307,7 +10379,7 @@
         <v>61731111.38609146</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11340,7 +10412,7 @@
         <v>61731111.38609146</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11373,7 +10445,7 @@
         <v>61812356.58309146</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11406,7 +10478,7 @@
         <v>61484614.59739146</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11439,7 +10511,7 @@
         <v>61466897.19459146</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11472,7 +10544,7 @@
         <v>61455592.91129147</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11505,7 +10577,7 @@
         <v>60924669.80659147</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11538,7 +10610,7 @@
         <v>60924669.80659147</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -16433,6 +15505,6 @@
       <c r="M451" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-24 BackTest WET.xlsx
+++ b/BackTest/2019-11-24 BackTest WET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -749,11 +749,9 @@
         <v>54738547.4553986</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -788,11 +786,9 @@
         <v>54739188.7277986</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -827,11 +823,9 @@
         <v>54909288.7277986</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -866,11 +860,9 @@
         <v>54711401.93679859</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -905,11 +897,9 @@
         <v>54711401.93679859</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -944,20 +934,16 @@
         <v>54711302.93679859</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.64</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -983,17 +969,11 @@
         <v>54715875.9350986</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5.63</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1022,17 +1002,11 @@
         <v>54584695.9350986</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1061,17 +1035,11 @@
         <v>54588382.55867726</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1100,17 +1068,11 @@
         <v>54722106.87549859</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5.72</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1139,17 +1101,11 @@
         <v>54840897.69729859</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5.74</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1178,17 +1134,11 @@
         <v>55385868.45805377</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5.77</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1217,17 +1167,11 @@
         <v>55988583.41861334</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.79</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1256,17 +1200,11 @@
         <v>56267910.79191335</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5.84</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1295,17 +1233,11 @@
         <v>56158375.89941335</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5.85</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1334,15 +1266,11 @@
         <v>56321356.58591335</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1371,15 +1299,11 @@
         <v>55652826.14751334</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1408,15 +1332,11 @@
         <v>56483308.38731334</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1445,15 +1365,11 @@
         <v>56605763.66711334</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1482,15 +1398,11 @@
         <v>57694701.56711334</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1519,15 +1431,11 @@
         <v>56540781.88921334</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1556,15 +1464,11 @@
         <v>56779892.91561334</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1593,15 +1497,11 @@
         <v>56742564.206993</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1630,15 +1530,11 @@
         <v>57068008.030393</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1667,15 +1563,11 @@
         <v>57067235.355393</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1704,15 +1596,11 @@
         <v>57300091.5790185</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1741,15 +1629,11 @@
         <v>58068106.34482855</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1778,15 +1662,11 @@
         <v>59937552.17982129</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1815,15 +1695,11 @@
         <v>58766184.27869439</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1852,15 +1728,11 @@
         <v>58863343.78109439</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1893,11 +1765,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1930,11 +1798,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1967,11 +1831,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2004,11 +1864,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2041,11 +1897,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2078,11 +1930,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2115,11 +1963,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2152,11 +1996,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2189,11 +2029,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2226,11 +2062,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2259,16 +2091,14 @@
         <v>61019651.13306651</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
       <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -2294,7 +2124,7 @@
         <v>60842227.95546652</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2327,7 +2157,7 @@
         <v>59588595.23496652</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2360,7 +2190,7 @@
         <v>59588673.60496651</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2393,7 +2223,7 @@
         <v>59463897.25636651</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2426,7 +2256,7 @@
         <v>59463985.25636651</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2459,7 +2289,7 @@
         <v>58937752.38690411</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2492,7 +2322,7 @@
         <v>59753328.11840411</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2525,7 +2355,7 @@
         <v>59746963.0043041</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2558,7 +2388,7 @@
         <v>59801299.3613041</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2591,7 +2421,7 @@
         <v>59797814.1614041</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2624,7 +2454,7 @@
         <v>59640861.5952041</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2657,7 +2487,7 @@
         <v>59604860.7973041</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2690,7 +2520,7 @@
         <v>59661331.5395041</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2723,7 +2553,7 @@
         <v>58909487.1333041</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2756,7 +2586,7 @@
         <v>59653822.32100411</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2789,7 +2619,7 @@
         <v>59755549.78480411</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2822,7 +2652,7 @@
         <v>59619864.68940411</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3284,7 +3114,7 @@
         <v>59210656.0770041</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3317,7 +3147,7 @@
         <v>59210656.0770041</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3383,7 +3213,7 @@
         <v>59210656.0770041</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3416,7 +3246,7 @@
         <v>59210656.0770041</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3482,7 +3312,7 @@
         <v>60811277.51340411</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3515,7 +3345,7 @@
         <v>61076345.22760411</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3548,7 +3378,7 @@
         <v>61062680.6998041</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3581,7 +3411,7 @@
         <v>61062680.6998041</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -4142,7 +3972,7 @@
         <v>64810660.29890411</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4175,7 +4005,7 @@
         <v>64254467.10180411</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4208,7 +4038,7 @@
         <v>64254467.10180411</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4241,7 +4071,7 @@
         <v>64041227.79450411</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4274,7 +4104,7 @@
         <v>64451304.08680411</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4307,7 +4137,7 @@
         <v>64421304.08680411</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4340,7 +4170,7 @@
         <v>64306093.15900411</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4373,7 +4203,7 @@
         <v>64306192.15900411</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4406,7 +4236,7 @@
         <v>64288074.14900412</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4439,7 +4269,7 @@
         <v>64190370.22600412</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4472,7 +4302,7 @@
         <v>64133233.27950411</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4505,7 +4335,7 @@
         <v>63617338.05800411</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4538,7 +4368,7 @@
         <v>63815886.71000411</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4571,7 +4401,7 @@
         <v>63724243.06825403</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4604,7 +4434,7 @@
         <v>63757797.66031719</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4637,7 +4467,7 @@
         <v>63727127.83411719</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4670,7 +4500,7 @@
         <v>63729755.07251719</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4703,7 +4533,7 @@
         <v>63798965.27251719</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4736,7 +4566,7 @@
         <v>63798965.27251719</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4769,7 +4599,7 @@
         <v>63905562.40981719</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4802,7 +4632,7 @@
         <v>64255083.13921719</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4835,7 +4665,7 @@
         <v>64280892.34199943</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4868,7 +4698,7 @@
         <v>64293217.13808426</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5429,7 +5259,7 @@
         <v>65073727.5939792</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5462,7 +5292,7 @@
         <v>65071827.5939792</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5495,7 +5325,7 @@
         <v>64871827.5939792</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5528,7 +5358,7 @@
         <v>64844274.9290792</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5561,7 +5391,7 @@
         <v>64729467.7591792</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5594,7 +5424,7 @@
         <v>64739467.7591792</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5627,7 +5457,7 @@
         <v>64285577.4280792</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5660,7 +5490,7 @@
         <v>63760705.97829418</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5693,7 +5523,7 @@
         <v>63934155.97512751</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5726,7 +5556,7 @@
         <v>63932155.97512751</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5759,7 +5589,7 @@
         <v>63276260.87072751</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5792,7 +5622,7 @@
         <v>63812841.94922751</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5825,7 +5655,7 @@
         <v>63750467.45582751</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5858,7 +5688,7 @@
         <v>63170544.24002751</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5891,7 +5721,7 @@
         <v>63463168.89162751</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5924,7 +5754,7 @@
         <v>62876548.57752752</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5957,7 +5787,7 @@
         <v>62921920.45022751</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5990,7 +5820,7 @@
         <v>62921920.45022751</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6023,7 +5853,7 @@
         <v>62921832.45022751</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6056,7 +5886,7 @@
         <v>62921931.45022751</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6089,7 +5919,7 @@
         <v>62921931.45022751</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6122,7 +5952,7 @@
         <v>62921931.45022751</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -15505,6 +15335,6 @@
       <c r="M451" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-24 BackTest WET.xlsx
+++ b/BackTest/2019-11-24 BackTest WET.xlsx
@@ -601,9 +601,11 @@
         <v>55009794.7973986</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.57</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -786,9 +788,11 @@
         <v>54739188.7277986</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.57</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -823,9 +827,11 @@
         <v>54909288.7277986</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.62</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -860,9 +866,11 @@
         <v>54711401.93679859</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -934,16 +942,18 @@
         <v>54711302.93679859</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
       <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -969,11 +979,15 @@
         <v>54715875.9350986</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1006,7 +1020,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1039,7 +1057,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1068,11 +1090,15 @@
         <v>54722106.87549859</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1101,11 +1127,15 @@
         <v>54840897.69729859</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1134,11 +1164,15 @@
         <v>55385868.45805377</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1167,11 +1201,15 @@
         <v>55988583.41861334</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1200,11 +1238,15 @@
         <v>56267910.79191335</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1233,11 +1275,15 @@
         <v>56158375.89941335</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1266,11 +1312,15 @@
         <v>56321356.58591335</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1299,11 +1349,15 @@
         <v>55652826.14751334</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1332,11 +1386,15 @@
         <v>56483308.38731334</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1365,11 +1423,15 @@
         <v>56605763.66711334</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1398,11 +1460,15 @@
         <v>57694701.56711334</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1431,11 +1497,15 @@
         <v>56540781.88921334</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1464,11 +1534,15 @@
         <v>56779892.91561334</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1497,11 +1571,15 @@
         <v>56742564.206993</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1530,11 +1608,15 @@
         <v>57068008.030393</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1563,11 +1645,15 @@
         <v>57067235.355393</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1596,11 +1682,15 @@
         <v>57300091.5790185</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1629,11 +1719,15 @@
         <v>58068106.34482855</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1662,11 +1756,15 @@
         <v>59937552.17982129</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1695,11 +1793,15 @@
         <v>58766184.27869439</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1728,11 +1830,15 @@
         <v>58863343.78109439</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1765,7 +1871,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1798,7 +1908,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1831,7 +1945,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1864,7 +1982,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1897,7 +2019,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1930,7 +2056,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1963,7 +2093,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1992,14 +2126,16 @@
         <v>60346626.87307899</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -2025,7 +2161,7 @@
         <v>61172853.81056651</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2058,7 +2194,7 @@
         <v>61019651.13306651</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2091,7 +2227,7 @@
         <v>61019651.13306651</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2124,7 +2260,7 @@
         <v>60842227.95546652</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2157,7 +2293,7 @@
         <v>59588595.23496652</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2256,7 +2392,7 @@
         <v>59463985.25636651</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2289,7 +2425,7 @@
         <v>58937752.38690411</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2322,7 +2458,7 @@
         <v>59753328.11840411</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2355,7 +2491,7 @@
         <v>59746963.0043041</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2388,7 +2524,7 @@
         <v>59801299.3613041</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2421,7 +2557,7 @@
         <v>59797814.1614041</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2454,7 +2590,7 @@
         <v>59640861.5952041</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2487,7 +2623,7 @@
         <v>59604860.7973041</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2520,7 +2656,7 @@
         <v>59661331.5395041</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2553,7 +2689,7 @@
         <v>58909487.1333041</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2586,7 +2722,7 @@
         <v>59653822.32100411</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2619,7 +2755,7 @@
         <v>59755549.78480411</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2652,7 +2788,7 @@
         <v>59619864.68940411</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2685,7 +2821,7 @@
         <v>59865830.81980411</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2718,7 +2854,7 @@
         <v>59865830.81980411</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2751,7 +2887,7 @@
         <v>59865830.81980411</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2784,7 +2920,7 @@
         <v>59865830.81980411</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2817,7 +2953,7 @@
         <v>59747669.30580411</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2850,7 +2986,7 @@
         <v>59787047.53570411</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
